--- a/Bills/Vrajesh_Shah_Jobuss.xlsx
+++ b/Bills/Vrajesh_Shah_Jobuss.xlsx
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G12" s="65" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="66" t="n"/>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G13" s="65" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="66" t="n"/>

--- a/Bills/Vrajesh_Shah_Jobuss.xlsx
+++ b/Bills/Vrajesh_Shah_Jobuss.xlsx
@@ -1870,7 +1870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1902,7 +1902,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1913,122 +1912,117 @@
       </c>
       <c r="B1" s="105" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="105" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="105" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="105" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="105" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="105" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="105" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="105" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="105" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="105" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="105" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="105" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="105" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="105" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="105" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="105" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="105" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="105" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="105" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="105" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="105" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="105" t="inlineStr">
+      <c r="W1" s="105" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="105" t="inlineStr">
+      <c r="X1" s="105" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="105" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="105" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2040,80 +2034,75 @@
       </c>
       <c r="B2" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10152</t>
         </is>
       </c>
       <c r="C2" s="106" t="inlineStr">
         <is>
-          <t>JB-10152</t>
-        </is>
-      </c>
-      <c r="D2" s="106" t="inlineStr">
-        <is>
           <t>POOJA VASANT KHOPADE</t>
         </is>
       </c>
+      <c r="D2" s="106" t="n">
+        <v>85804</v>
+      </c>
       <c r="E2" s="106" t="n">
-        <v>85804</v>
+        <v>28</v>
       </c>
       <c r="F2" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G2" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H2" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="106" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K2" s="106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L2" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="106" t="n">
         <v>30</v>
       </c>
-      <c r="M2" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="106" t="n">
-        <v>30</v>
+        <v>91932.86</v>
       </c>
       <c r="P2" s="106" t="n">
-        <v>91932.86</v>
+        <v>10714.29</v>
       </c>
       <c r="Q2" s="106" t="n">
-        <v>10714.29</v>
+        <v>0</v>
       </c>
       <c r="R2" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="106" t="n">
-        <v>0</v>
+        <v>102647.14</v>
       </c>
       <c r="T2" s="106" t="n">
-        <v>102647.14</v>
+        <v>121123.63</v>
       </c>
       <c r="U2" s="106" t="n">
-        <v>9238.24</v>
+        <v/>
       </c>
       <c r="V2" s="106" t="n">
         <v>9238.24</v>
       </c>
       <c r="W2" s="106" t="n">
-        <v>0</v>
+        <v>9238.24</v>
       </c>
       <c r="X2" s="106" t="n">
-        <v>121123.63</v>
-      </c>
-      <c r="Y2" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2125,80 +2114,75 @@
       </c>
       <c r="B3" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10246</t>
         </is>
       </c>
       <c r="C3" s="106" t="inlineStr">
         <is>
-          <t>JB-10246</t>
-        </is>
-      </c>
-      <c r="D3" s="106" t="inlineStr">
-        <is>
           <t>IRSHA RAMESH SHINDE</t>
         </is>
       </c>
+      <c r="D3" s="106" t="n">
+        <v>108333</v>
+      </c>
       <c r="E3" s="106" t="n">
-        <v>108333</v>
+        <v>28</v>
       </c>
       <c r="F3" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G3" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H3" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" s="106" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" s="106" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="106" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="106" t="n">
-        <v>13</v>
-      </c>
-      <c r="L3" s="106" t="n">
-        <v>23</v>
-      </c>
-      <c r="M3" s="106" t="n">
-        <v>10</v>
-      </c>
       <c r="N3" s="106" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="O3" s="106" t="n">
-        <v>25</v>
+        <v>96725.89</v>
       </c>
       <c r="P3" s="106" t="n">
-        <v>96725.89</v>
+        <v>8928.57</v>
       </c>
       <c r="Q3" s="106" t="n">
-        <v>8928.57</v>
+        <v>0</v>
       </c>
       <c r="R3" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="106" t="n">
-        <v>0</v>
+        <v>105654.46</v>
       </c>
       <c r="T3" s="106" t="n">
-        <v>105654.46</v>
+        <v>124672.27</v>
       </c>
       <c r="U3" s="106" t="n">
-        <v>9508.9</v>
+        <v/>
       </c>
       <c r="V3" s="106" t="n">
         <v>9508.9</v>
       </c>
       <c r="W3" s="106" t="n">
-        <v>0</v>
+        <v>9508.9</v>
       </c>
       <c r="X3" s="106" t="n">
-        <v>124672.27</v>
-      </c>
-      <c r="Y3" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2210,80 +2194,75 @@
       </c>
       <c r="B4" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10135</t>
         </is>
       </c>
       <c r="C4" s="106" t="inlineStr">
         <is>
-          <t>JB-10135</t>
-        </is>
-      </c>
-      <c r="D4" s="106" t="inlineStr">
-        <is>
           <t>SANDHYA SAIKIRAN DASARI</t>
         </is>
       </c>
+      <c r="D4" s="106" t="n">
+        <v>40000</v>
+      </c>
       <c r="E4" s="106" t="n">
-        <v>40000</v>
+        <v>28</v>
       </c>
       <c r="F4" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G4" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H4" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="106" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K4" s="106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L4" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="106" t="n">
         <v>30</v>
       </c>
-      <c r="M4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="106" t="n">
-        <v>30</v>
+        <v>42857.14</v>
       </c>
       <c r="P4" s="106" t="n">
-        <v>42857.14</v>
+        <v>5357.14</v>
       </c>
       <c r="Q4" s="106" t="n">
-        <v>5357.14</v>
+        <v>0</v>
       </c>
       <c r="R4" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="106" t="n">
-        <v>0</v>
+        <v>48214.29</v>
       </c>
       <c r="T4" s="106" t="n">
-        <v>48214.29</v>
+        <v>56892.86</v>
       </c>
       <c r="U4" s="106" t="n">
-        <v>4339.29</v>
+        <v/>
       </c>
       <c r="V4" s="106" t="n">
         <v>4339.29</v>
       </c>
       <c r="W4" s="106" t="n">
-        <v>0</v>
+        <v>4339.29</v>
       </c>
       <c r="X4" s="106" t="n">
-        <v>56892.86</v>
-      </c>
-      <c r="Y4" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2295,80 +2274,75 @@
       </c>
       <c r="B5" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10183</t>
         </is>
       </c>
       <c r="C5" s="106" t="inlineStr">
         <is>
-          <t>JB-10183</t>
-        </is>
-      </c>
-      <c r="D5" s="106" t="inlineStr">
-        <is>
           <t>ROOPA RAJESH NAIK</t>
         </is>
       </c>
+      <c r="D5" s="106" t="n">
+        <v>73800</v>
+      </c>
       <c r="E5" s="106" t="n">
-        <v>73800</v>
+        <v>28</v>
       </c>
       <c r="F5" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G5" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H5" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="106" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" s="106" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" s="106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="106" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="106" t="n">
-        <v>17</v>
-      </c>
-      <c r="L5" s="106" t="n">
-        <v>27</v>
-      </c>
-      <c r="M5" s="106" t="n">
-        <v>3</v>
-      </c>
       <c r="N5" s="106" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O5" s="106" t="n">
-        <v>29</v>
+        <v>76435.71000000001</v>
       </c>
       <c r="P5" s="106" t="n">
-        <v>76435.71000000001</v>
+        <v>5178.57</v>
       </c>
       <c r="Q5" s="106" t="n">
-        <v>5178.57</v>
+        <v>0</v>
       </c>
       <c r="R5" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="106" t="n">
-        <v>0</v>
+        <v>81614.28999999999</v>
       </c>
       <c r="T5" s="106" t="n">
-        <v>81614.28999999999</v>
+        <v>96304.86</v>
       </c>
       <c r="U5" s="106" t="n">
-        <v>7345.29</v>
+        <v/>
       </c>
       <c r="V5" s="106" t="n">
         <v>7345.29</v>
       </c>
       <c r="W5" s="106" t="n">
-        <v>0</v>
+        <v>7345.29</v>
       </c>
       <c r="X5" s="106" t="n">
-        <v>96304.86</v>
-      </c>
-      <c r="Y5" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2380,80 +2354,75 @@
       </c>
       <c r="B6" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10234</t>
         </is>
       </c>
       <c r="C6" s="106" t="inlineStr">
         <is>
-          <t>JB-10234</t>
-        </is>
-      </c>
-      <c r="D6" s="106" t="inlineStr">
-        <is>
           <t>AARTI UPADHYAY</t>
         </is>
       </c>
+      <c r="D6" s="106" t="n">
+        <v>77100</v>
+      </c>
       <c r="E6" s="106" t="n">
-        <v>77100</v>
+        <v>28</v>
       </c>
       <c r="F6" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G6" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H6" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="106" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K6" s="106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L6" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="106" t="n">
         <v>30</v>
       </c>
-      <c r="M6" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" s="106" t="n">
-        <v>30</v>
+        <v>82607.14</v>
       </c>
       <c r="P6" s="106" t="n">
-        <v>82607.14</v>
+        <v>5357.14</v>
       </c>
       <c r="Q6" s="106" t="n">
-        <v>5357.14</v>
+        <v>0</v>
       </c>
       <c r="R6" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="106" t="n">
-        <v>0</v>
+        <v>87964.28999999999</v>
       </c>
       <c r="T6" s="106" t="n">
-        <v>87964.28999999999</v>
+        <v>103797.86</v>
       </c>
       <c r="U6" s="106" t="n">
-        <v>7916.79</v>
+        <v/>
       </c>
       <c r="V6" s="106" t="n">
         <v>7916.79</v>
       </c>
       <c r="W6" s="106" t="n">
-        <v>0</v>
+        <v>7916.79</v>
       </c>
       <c r="X6" s="106" t="n">
-        <v>103797.86</v>
-      </c>
-      <c r="Y6" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2465,80 +2434,75 @@
       </c>
       <c r="B7" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10248</t>
         </is>
       </c>
       <c r="C7" s="106" t="inlineStr">
         <is>
-          <t>JB-10248</t>
-        </is>
-      </c>
-      <c r="D7" s="106" t="inlineStr">
-        <is>
           <t>ANKITA SANTOSH MHATRE</t>
         </is>
       </c>
+      <c r="D7" s="106" t="n">
+        <v>100000</v>
+      </c>
       <c r="E7" s="106" t="n">
-        <v>100000</v>
+        <v>28</v>
       </c>
       <c r="F7" s="106" t="n">
         <v>28</v>
       </c>
       <c r="G7" s="106" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H7" s="106" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="106" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K7" s="106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L7" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="106" t="n">
         <v>30</v>
       </c>
-      <c r="M7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" s="106" t="n">
-        <v>30</v>
+        <v>107142.86</v>
       </c>
       <c r="P7" s="106" t="n">
-        <v>107142.86</v>
+        <v>10714.29</v>
       </c>
       <c r="Q7" s="106" t="n">
-        <v>10714.29</v>
+        <v>0</v>
       </c>
       <c r="R7" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="106" t="n">
-        <v>0</v>
+        <v>117857.14</v>
       </c>
       <c r="T7" s="106" t="n">
-        <v>117857.14</v>
+        <v>139071.43</v>
       </c>
       <c r="U7" s="106" t="n">
-        <v>10607.14</v>
+        <v/>
       </c>
       <c r="V7" s="106" t="n">
         <v>10607.14</v>
       </c>
       <c r="W7" s="106" t="n">
-        <v>0</v>
+        <v>10607.14</v>
       </c>
       <c r="X7" s="106" t="n">
-        <v>139071.43</v>
-      </c>
-      <c r="Y7" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2550,80 +2514,75 @@
       </c>
       <c r="B8" s="106" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>JB-10278</t>
         </is>
       </c>
       <c r="C8" s="106" t="inlineStr">
         <is>
-          <t>JB-10278</t>
-        </is>
-      </c>
-      <c r="D8" s="106" t="inlineStr">
-        <is>
           <t>RITESH SHARAD PATIL</t>
         </is>
       </c>
+      <c r="D8" s="106" t="n">
+        <v>83333</v>
+      </c>
       <c r="E8" s="106" t="n">
-        <v>83333</v>
+        <v>28</v>
       </c>
       <c r="F8" s="106" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G8" s="106" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H8" s="106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="106" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" s="106" t="n">
-        <v>3</v>
+        <v>8928.540000000001</v>
       </c>
       <c r="P8" s="106" t="n">
-        <v>8928.540000000001</v>
+        <v>535.71</v>
       </c>
       <c r="Q8" s="106" t="n">
-        <v>535.71</v>
+        <v>0</v>
       </c>
       <c r="R8" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="106" t="n">
-        <v>0</v>
+        <v>9464.25</v>
       </c>
       <c r="T8" s="106" t="n">
-        <v>9464.25</v>
+        <v>11167.81</v>
       </c>
       <c r="U8" s="106" t="n">
-        <v>851.78</v>
+        <v/>
       </c>
       <c r="V8" s="106" t="n">
         <v>851.78</v>
       </c>
       <c r="W8" s="106" t="n">
-        <v>0</v>
+        <v>851.78</v>
       </c>
       <c r="X8" s="106" t="n">
-        <v>11167.81</v>
-      </c>
-      <c r="Y8" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2633,80 +2592,75 @@
           <t>Vrajesh Shah</t>
         </is>
       </c>
-      <c r="B9" s="106" t="inlineStr">
-        <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C9" s="106" t="n">
-        <v/>
-      </c>
-      <c r="D9" s="106" t="inlineStr">
+      <c r="B9" s="106" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="106" t="inlineStr">
         <is>
           <t>ANISHKA KHANDELWAL</t>
         </is>
       </c>
+      <c r="D9" s="106" t="n">
+        <v>83333</v>
+      </c>
       <c r="E9" s="106" t="n">
-        <v>83333</v>
+        <v>28</v>
       </c>
       <c r="F9" s="106" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G9" s="106" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="106" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="106" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="106" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" s="106" t="n">
-        <v>1</v>
+        <v>2976.18</v>
       </c>
       <c r="P9" s="106" t="n">
-        <v>2976.18</v>
+        <v>178.57</v>
       </c>
       <c r="Q9" s="106" t="n">
-        <v>178.57</v>
+        <v>0</v>
       </c>
       <c r="R9" s="106" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="106" t="n">
-        <v>0</v>
+        <v>3154.75</v>
       </c>
       <c r="T9" s="106" t="n">
-        <v>3154.75</v>
+        <v>3722.6</v>
       </c>
       <c r="U9" s="106" t="n">
-        <v>283.93</v>
+        <v/>
       </c>
       <c r="V9" s="106" t="n">
         <v>283.93</v>
       </c>
       <c r="W9" s="106" t="n">
-        <v>0</v>
+        <v>283.93</v>
       </c>
       <c r="X9" s="106" t="n">
-        <v>3722.6</v>
-      </c>
-      <c r="Y9" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2718,7 +2672,10 @@
       </c>
       <c r="B10" s="107" t="n"/>
       <c r="C10" s="107" t="n"/>
-      <c r="D10" s="107" t="n"/>
+      <c r="D10" s="107">
+        <f>ROUND(SUM(D2:D9), 0)</f>
+        <v/>
+      </c>
       <c r="E10" s="107">
         <f>ROUND(SUM(E2:E9), 0)</f>
         <v/>
@@ -2780,26 +2737,22 @@
         <v/>
       </c>
       <c r="T10" s="107">
-        <f>ROUND(SUM(T2:T9), 0)</f>
-        <v/>
-      </c>
-      <c r="U10" s="107">
-        <f>CEILING(SUM(U2:U9), 1)</f>
-        <v/>
-      </c>
+        <f>ROUND(SUM(S10), 0)</f>
+        <v/>
+      </c>
+      <c r="U10" s="107" t="n"/>
       <c r="V10" s="107">
         <f>CEILING(SUM(V2:V9), 1)</f>
         <v/>
       </c>
       <c r="W10" s="107">
-        <f>ROUND(SUM(W2:W9), 0)</f>
+        <f>CEILING(SUM(W2:W9), 1)</f>
         <v/>
       </c>
       <c r="X10" s="107">
-        <f>ROUND(SUM(T10,U10,V10,W10), 0)</f>
-        <v/>
-      </c>
-      <c r="Y10" s="107" t="n"/>
+        <f>ROUND(SUM(X2:X9), 0)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Vrajesh_Shah_Jobuss.xlsx
+++ b/Bills/Vrajesh_Shah_Jobuss.xlsx
@@ -439,7 +439,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -703,7 +703,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,7 +1549,7 @@
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="13" t="n"/>
       <c r="H21" s="98" t="n">
-        <v>50091</v>
+        <v>50092</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" thickBot="1">
@@ -1561,13 +1565,13 @@
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="13" t="n"/>
       <c r="H22" s="98" t="n">
-        <v>50091</v>
+        <v>50092</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="17" t="n"/>
       <c r="H23" s="98" t="n">
-        <v>656753</v>
+        <v>656755</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
@@ -1578,7 +1582,7 @@
       </c>
       <c r="B24" s="19" t="inlineStr">
         <is>
-          <t>Six Lakh, Fifty-Six Thousand, Seven Hundred And Fifty-Three Only</t>
+          <t>Six Lakh, Fifty-Six Thousand, Seven Hundred And Fifty-Five Only</t>
         </is>
       </c>
       <c r="H24" s="99" t="n"/>
@@ -1870,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,7 +1905,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2002,27 +2005,22 @@
       </c>
       <c r="T1" s="105" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="105" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="105" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="105" t="inlineStr">
+      <c r="W1" s="105" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="105" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="105" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="105" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2042,67 +2040,64 @@
           <t>POOJA VASANT KHOPADE</t>
         </is>
       </c>
-      <c r="D2" s="106" t="n">
+      <c r="D2" s="107" t="n">
         <v>85804</v>
       </c>
-      <c r="E2" s="106" t="n">
+      <c r="E2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="106" t="n">
+      <c r="F2" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="n">
+      <c r="G2" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="106" t="n">
+      <c r="H2" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="106" t="n">
+      <c r="I2" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="106" t="n">
+      <c r="J2" s="107" t="n">
         <v>20</v>
       </c>
-      <c r="K2" s="106" t="n">
+      <c r="K2" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="L2" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="106" t="n">
+      <c r="L2" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="106" t="n">
+      <c r="O2" s="107" t="n">
         <v>91932.86</v>
       </c>
-      <c r="P2" s="106" t="n">
+      <c r="P2" s="107" t="n">
         <v>10714.29</v>
       </c>
-      <c r="Q2" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="106" t="n">
+      <c r="Q2" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="107" t="n">
         <v>102647.14</v>
       </c>
-      <c r="T2" s="106" t="n">
+      <c r="T2" s="107" t="n">
+        <v>9238.24</v>
+      </c>
+      <c r="U2" s="107" t="n">
+        <v>9238.24</v>
+      </c>
+      <c r="V2" s="107" t="n">
         <v>121123.63</v>
       </c>
-      <c r="U2" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="106" t="n">
-        <v>9238.24</v>
-      </c>
       <c r="W2" s="106" t="n">
-        <v>9238.24</v>
-      </c>
-      <c r="X2" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2122,67 +2117,64 @@
           <t>IRSHA RAMESH SHINDE</t>
         </is>
       </c>
-      <c r="D3" s="106" t="n">
+      <c r="D3" s="107" t="n">
         <v>108333</v>
       </c>
-      <c r="E3" s="106" t="n">
+      <c r="E3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F3" s="106" t="n">
+      <c r="F3" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G3" s="106" t="n">
+      <c r="G3" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="106" t="n">
+      <c r="H3" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="106" t="n">
+      <c r="I3" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="106" t="n">
+      <c r="J3" s="107" t="n">
         <v>13</v>
       </c>
-      <c r="K3" s="106" t="n">
+      <c r="K3" s="107" t="n">
         <v>23</v>
       </c>
-      <c r="L3" s="106" t="n">
+      <c r="L3" s="107" t="n">
         <v>10</v>
       </c>
-      <c r="M3" s="106" t="n">
+      <c r="M3" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="106" t="n">
+      <c r="N3" s="107" t="n">
         <v>25</v>
       </c>
-      <c r="O3" s="106" t="n">
+      <c r="O3" s="107" t="n">
         <v>96725.89</v>
       </c>
-      <c r="P3" s="106" t="n">
+      <c r="P3" s="107" t="n">
         <v>8928.57</v>
       </c>
-      <c r="Q3" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="106" t="n">
+      <c r="Q3" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="107" t="n">
         <v>105654.46</v>
       </c>
-      <c r="T3" s="106" t="n">
+      <c r="T3" s="107" t="n">
+        <v>9508.9</v>
+      </c>
+      <c r="U3" s="107" t="n">
+        <v>9508.9</v>
+      </c>
+      <c r="V3" s="107" t="n">
         <v>124672.27</v>
       </c>
-      <c r="U3" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V3" s="106" t="n">
-        <v>9508.9</v>
-      </c>
       <c r="W3" s="106" t="n">
-        <v>9508.9</v>
-      </c>
-      <c r="X3" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2202,67 +2194,64 @@
           <t>SANDHYA SAIKIRAN DASARI</t>
         </is>
       </c>
-      <c r="D4" s="106" t="n">
+      <c r="D4" s="107" t="n">
         <v>40000</v>
       </c>
-      <c r="E4" s="106" t="n">
+      <c r="E4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="106" t="n">
+      <c r="F4" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G4" s="106" t="n">
+      <c r="G4" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="106" t="n">
+      <c r="H4" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="106" t="n">
+      <c r="I4" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="106" t="n">
+      <c r="J4" s="107" t="n">
         <v>20</v>
       </c>
-      <c r="K4" s="106" t="n">
+      <c r="K4" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="106" t="n">
+      <c r="L4" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="O4" s="106" t="n">
+      <c r="O4" s="107" t="n">
         <v>42857.14</v>
       </c>
-      <c r="P4" s="106" t="n">
+      <c r="P4" s="107" t="n">
         <v>5357.14</v>
       </c>
-      <c r="Q4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="106" t="n">
+      <c r="Q4" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="107" t="n">
         <v>48214.29</v>
       </c>
-      <c r="T4" s="106" t="n">
+      <c r="T4" s="107" t="n">
+        <v>4339.29</v>
+      </c>
+      <c r="U4" s="107" t="n">
+        <v>4339.29</v>
+      </c>
+      <c r="V4" s="107" t="n">
         <v>56892.86</v>
       </c>
-      <c r="U4" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V4" s="106" t="n">
-        <v>4339.29</v>
-      </c>
       <c r="W4" s="106" t="n">
-        <v>4339.29</v>
-      </c>
-      <c r="X4" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2282,67 +2271,64 @@
           <t>ROOPA RAJESH NAIK</t>
         </is>
       </c>
-      <c r="D5" s="106" t="n">
+      <c r="D5" s="107" t="n">
         <v>73800</v>
       </c>
-      <c r="E5" s="106" t="n">
+      <c r="E5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F5" s="106" t="n">
+      <c r="F5" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G5" s="106" t="n">
+      <c r="G5" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="106" t="n">
+      <c r="H5" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="106" t="n">
+      <c r="I5" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="106" t="n">
+      <c r="J5" s="107" t="n">
         <v>17</v>
       </c>
-      <c r="K5" s="106" t="n">
+      <c r="K5" s="107" t="n">
         <v>27</v>
       </c>
-      <c r="L5" s="106" t="n">
+      <c r="L5" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="M5" s="106" t="n">
+      <c r="M5" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="106" t="n">
+      <c r="N5" s="107" t="n">
         <v>29</v>
       </c>
-      <c r="O5" s="106" t="n">
+      <c r="O5" s="107" t="n">
         <v>76435.71000000001</v>
       </c>
-      <c r="P5" s="106" t="n">
+      <c r="P5" s="107" t="n">
         <v>5178.57</v>
       </c>
-      <c r="Q5" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="106" t="n">
+      <c r="Q5" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="107" t="n">
         <v>81614.28999999999</v>
       </c>
-      <c r="T5" s="106" t="n">
+      <c r="T5" s="107" t="n">
+        <v>7345.29</v>
+      </c>
+      <c r="U5" s="107" t="n">
+        <v>7345.29</v>
+      </c>
+      <c r="V5" s="107" t="n">
         <v>96304.86</v>
       </c>
-      <c r="U5" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V5" s="106" t="n">
-        <v>7345.29</v>
-      </c>
       <c r="W5" s="106" t="n">
-        <v>7345.29</v>
-      </c>
-      <c r="X5" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2362,67 +2348,64 @@
           <t>AARTI UPADHYAY</t>
         </is>
       </c>
-      <c r="D6" s="106" t="n">
+      <c r="D6" s="107" t="n">
         <v>77100</v>
       </c>
-      <c r="E6" s="106" t="n">
+      <c r="E6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F6" s="106" t="n">
+      <c r="F6" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G6" s="106" t="n">
+      <c r="G6" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="106" t="n">
+      <c r="H6" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="106" t="n">
+      <c r="I6" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="106" t="n">
+      <c r="J6" s="107" t="n">
         <v>20</v>
       </c>
-      <c r="K6" s="106" t="n">
+      <c r="K6" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="L6" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="106" t="n">
+      <c r="L6" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="O6" s="106" t="n">
+      <c r="O6" s="107" t="n">
         <v>82607.14</v>
       </c>
-      <c r="P6" s="106" t="n">
+      <c r="P6" s="107" t="n">
         <v>5357.14</v>
       </c>
-      <c r="Q6" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="106" t="n">
+      <c r="Q6" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="107" t="n">
         <v>87964.28999999999</v>
       </c>
-      <c r="T6" s="106" t="n">
+      <c r="T6" s="107" t="n">
+        <v>7916.79</v>
+      </c>
+      <c r="U6" s="107" t="n">
+        <v>7916.79</v>
+      </c>
+      <c r="V6" s="107" t="n">
         <v>103797.86</v>
       </c>
-      <c r="U6" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V6" s="106" t="n">
-        <v>7916.79</v>
-      </c>
       <c r="W6" s="106" t="n">
-        <v>7916.79</v>
-      </c>
-      <c r="X6" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2442,67 +2425,64 @@
           <t>ANKITA SANTOSH MHATRE</t>
         </is>
       </c>
-      <c r="D7" s="106" t="n">
+      <c r="D7" s="107" t="n">
         <v>100000</v>
       </c>
-      <c r="E7" s="106" t="n">
+      <c r="E7" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F7" s="106" t="n">
+      <c r="F7" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="G7" s="106" t="n">
+      <c r="G7" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="106" t="n">
+      <c r="H7" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="106" t="n">
+      <c r="I7" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="106" t="n">
+      <c r="J7" s="107" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="106" t="n">
+      <c r="K7" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="106" t="n">
+      <c r="L7" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="O7" s="106" t="n">
+      <c r="O7" s="107" t="n">
         <v>107142.86</v>
       </c>
-      <c r="P7" s="106" t="n">
+      <c r="P7" s="107" t="n">
         <v>10714.29</v>
       </c>
-      <c r="Q7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="106" t="n">
+      <c r="Q7" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="107" t="n">
         <v>117857.14</v>
       </c>
-      <c r="T7" s="106" t="n">
+      <c r="T7" s="107" t="n">
+        <v>10607.14</v>
+      </c>
+      <c r="U7" s="107" t="n">
+        <v>10607.14</v>
+      </c>
+      <c r="V7" s="107" t="n">
         <v>139071.43</v>
       </c>
-      <c r="U7" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V7" s="106" t="n">
-        <v>10607.14</v>
-      </c>
       <c r="W7" s="106" t="n">
-        <v>10607.14</v>
-      </c>
-      <c r="X7" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2522,67 +2502,64 @@
           <t>RITESH SHARAD PATIL</t>
         </is>
       </c>
-      <c r="D8" s="106" t="n">
+      <c r="D8" s="107" t="n">
         <v>83333</v>
       </c>
-      <c r="E8" s="106" t="n">
+      <c r="E8" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F8" s="106" t="n">
+      <c r="F8" s="107" t="n">
         <v>13</v>
       </c>
-      <c r="G8" s="106" t="n">
+      <c r="G8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="106" t="n">
+      <c r="H8" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="106" t="n">
+      <c r="I8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="106" t="n">
+      <c r="L8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="107" t="n">
         <v>3</v>
       </c>
-      <c r="O8" s="106" t="n">
+      <c r="O8" s="107" t="n">
         <v>8928.540000000001</v>
       </c>
-      <c r="P8" s="106" t="n">
+      <c r="P8" s="107" t="n">
         <v>535.71</v>
       </c>
-      <c r="Q8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="106" t="n">
+      <c r="Q8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="107" t="n">
         <v>9464.25</v>
       </c>
-      <c r="T8" s="106" t="n">
+      <c r="T8" s="107" t="n">
+        <v>851.78</v>
+      </c>
+      <c r="U8" s="107" t="n">
+        <v>851.78</v>
+      </c>
+      <c r="V8" s="107" t="n">
         <v>11167.81</v>
       </c>
-      <c r="U8" s="106" t="n">
-        <v/>
-      </c>
-      <c r="V8" s="106" t="n">
-        <v>851.78</v>
-      </c>
       <c r="W8" s="106" t="n">
-        <v>851.78</v>
-      </c>
-      <c r="X8" s="106" t="n">
         <v/>
       </c>
     </row>
@@ -2600,159 +2577,152 @@
           <t>ANISHKA KHANDELWAL</t>
         </is>
       </c>
-      <c r="D9" s="106" t="n">
+      <c r="D9" s="107" t="n">
         <v>83333</v>
       </c>
-      <c r="E9" s="106" t="n">
+      <c r="E9" s="107" t="n">
         <v>28</v>
       </c>
-      <c r="F9" s="106" t="n">
+      <c r="F9" s="107" t="n">
         <v>6</v>
       </c>
-      <c r="G9" s="106" t="n">
+      <c r="G9" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="106" t="n">
+      <c r="H9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="106" t="n">
+      <c r="L9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="106" t="n">
+      <c r="O9" s="107" t="n">
         <v>2976.18</v>
       </c>
-      <c r="P9" s="106" t="n">
+      <c r="P9" s="107" t="n">
         <v>178.57</v>
       </c>
-      <c r="Q9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="106" t="n">
+      <c r="Q9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="107" t="n">
         <v>3154.75</v>
       </c>
-      <c r="T9" s="106" t="n">
+      <c r="T9" s="107" t="n">
+        <v>283.93</v>
+      </c>
+      <c r="U9" s="107" t="n">
+        <v>283.93</v>
+      </c>
+      <c r="V9" s="107" t="n">
         <v>3722.6</v>
       </c>
-      <c r="U9" s="106" t="n">
+      <c r="W9" s="106" t="n">
         <v/>
       </c>
-      <c r="V9" s="106" t="n">
-        <v>283.93</v>
-      </c>
-      <c r="W9" s="106" t="n">
-        <v>283.93</v>
-      </c>
-      <c r="X9" s="106" t="n">
-        <v/>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="107" t="inlineStr">
+      <c r="A10" s="108" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B10" s="107" t="n"/>
-      <c r="C10" s="107" t="n"/>
-      <c r="D10" s="107">
+      <c r="B10" s="108" t="n"/>
+      <c r="C10" s="108" t="n"/>
+      <c r="D10" s="109">
         <f>ROUND(SUM(D2:D9), 0)</f>
         <v/>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="109">
         <f>ROUND(SUM(E2:E9), 0)</f>
         <v/>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="109">
         <f>ROUND(SUM(F2:F9), 0)</f>
         <v/>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="109">
         <f>ROUND(SUM(G2:G9), 0)</f>
         <v/>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="109">
         <f>ROUND(SUM(H2:H9), 0)</f>
         <v/>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="109">
         <f>ROUND(SUM(I2:I9), 0)</f>
         <v/>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="109">
         <f>ROUND(SUM(J2:J9), 0)</f>
         <v/>
       </c>
-      <c r="K10" s="107">
+      <c r="K10" s="109">
         <f>ROUND(SUM(K2:K9), 0)</f>
         <v/>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="109">
         <f>ROUND(SUM(L2:L9), 0)</f>
         <v/>
       </c>
-      <c r="M10" s="107">
+      <c r="M10" s="109">
         <f>ROUND(SUM(M2:M9), 0)</f>
         <v/>
       </c>
-      <c r="N10" s="107">
+      <c r="N10" s="109">
         <f>ROUND(SUM(N2:N9), 0)</f>
         <v/>
       </c>
-      <c r="O10" s="107">
+      <c r="O10" s="109">
         <f>ROUND(SUM(O2:O9), 0)</f>
         <v/>
       </c>
-      <c r="P10" s="107">
+      <c r="P10" s="109">
         <f>ROUND(SUM(P2:P9), 0)</f>
         <v/>
       </c>
-      <c r="Q10" s="107">
+      <c r="Q10" s="109">
         <f>ROUND(SUM(Q2:Q9), 0)</f>
         <v/>
       </c>
-      <c r="R10" s="107">
+      <c r="R10" s="109">
         <f>ROUND(SUM(R2:R9), 0)</f>
         <v/>
       </c>
-      <c r="S10" s="107">
+      <c r="S10" s="109">
         <f>ROUND(SUM(S2:S9), 0)</f>
         <v/>
       </c>
-      <c r="T10" s="107">
-        <f>ROUND(SUM(S10), 0)</f>
+      <c r="T10" s="109">
+        <f>CEILING(SUM(T2:T9), 1)</f>
         <v/>
       </c>
-      <c r="U10" s="107" t="n"/>
-      <c r="V10" s="107">
-        <f>CEILING(SUM(V2:V9), 1)</f>
+      <c r="U10" s="109">
+        <f>CEILING(SUM(U2:U9), 1)</f>
         <v/>
       </c>
-      <c r="W10" s="107">
-        <f>CEILING(SUM(W2:W9), 1)</f>
+      <c r="V10" s="109">
+        <f>ROUND(SUM(S10,T10,U10), 0)</f>
         <v/>
       </c>
-      <c r="X10" s="107">
-        <f>ROUND(SUM(X2:X9), 0)</f>
-        <v/>
-      </c>
+      <c r="W10" s="108" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
